--- a/outputs/CERESTRES_results/Gasera_vs_Chromat/Master_CON_GS_CO2_DK.xlsx
+++ b/outputs/CERESTRES_results/Gasera_vs_Chromat/Master_CON_GS_CO2_DK.xlsx
@@ -377,12 +377,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>avg_Gasera_CO2_flux_mgm2h</t>
+          <t>avg_Gasera_CCO2_flux_mgm2h</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>avg_Gasera_CO2_flux_mgm2h_cor</t>
+          <t>avg_Gasera_CCO2_flux_mgm2h_cor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -401,10 +401,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>1006.398932148017</v>
+        <v>74.85611892010046</v>
       </c>
       <c r="D2">
-        <v>1006.398932148017</v>
+        <v>74.85611892010046</v>
       </c>
       <c r="E2">
         <v>-65.23291968783575</v>
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>344.2022375403671</v>
+        <v>25.60181932118432</v>
       </c>
       <c r="D3">
-        <v>344.2022375403671</v>
+        <v>25.60181932118432</v>
       </c>
       <c r="E3">
         <v>-64.01596708895937</v>
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>1119.121972165592</v>
+        <v>83.24047726851509</v>
       </c>
       <c r="D4">
-        <v>1119.121972165592</v>
+        <v>83.24047726851509</v>
       </c>
       <c r="E4">
         <v>-57.18149842396114</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>923.5640496835169</v>
+        <v>68.69484667067481</v>
       </c>
       <c r="D5">
-        <v>923.5640496835169</v>
+        <v>68.69484667067481</v>
       </c>
       <c r="E5">
         <v>-50.24976222332433</v>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>1053.70482131479</v>
+        <v>78.37473877548022</v>
       </c>
       <c r="D6">
-        <v>1053.70482131479</v>
+        <v>78.37473877548022</v>
       </c>
       <c r="E6">
         <v>-45.76682784747948</v>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>815.585886597158</v>
+        <v>60.66341305268116</v>
       </c>
       <c r="D7">
-        <v>815.585886597158</v>
+        <v>60.66341305268116</v>
       </c>
       <c r="E7">
         <v>-43.11893533325154</v>
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>1064.36185334364</v>
+        <v>79.16741057927896</v>
       </c>
       <c r="D8">
-        <v>1064.36185334364</v>
+        <v>79.16741057927896</v>
       </c>
       <c r="E8">
         <v>-42.20853780245286</v>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>452.9676544868873</v>
+        <v>33.69180901142137</v>
       </c>
       <c r="D9">
-        <v>452.9676544868873</v>
+        <v>33.69180901142137</v>
       </c>
       <c r="E9">
         <v>-41.36799828415618</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>837.0858423601857</v>
+        <v>62.26258331604685</v>
       </c>
       <c r="D10">
-        <v>837.0858423601857</v>
+        <v>62.26258331604685</v>
       </c>
       <c r="E10">
         <v>-24.85464208662519</v>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>442.8609237361645</v>
+        <v>32.94006870764859</v>
       </c>
       <c r="D11">
-        <v>442.8609237361645</v>
+        <v>32.94006870764859</v>
       </c>
       <c r="E11">
         <v>-22.6275062280996</v>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>1100.437088134528</v>
+        <v>81.85069250587395</v>
       </c>
       <c r="D12">
-        <v>1100.437088134528</v>
+        <v>81.85069250587395</v>
       </c>
       <c r="E12">
         <v>-18.90298978650668</v>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>356.5737189484418</v>
+        <v>26.52201215318988</v>
       </c>
       <c r="D13">
-        <v>356.5737189484418</v>
+        <v>26.52201215318988</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>564.1891643522123</v>
+        <v>41.96448329892488</v>
       </c>
       <c r="D14">
-        <v>564.1891643522123</v>
+        <v>41.96448329892488</v>
       </c>
       <c r="E14">
         <v>5.115091324485861</v>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>830.4170365454646</v>
+        <v>61.76655643726595</v>
       </c>
       <c r="D15">
-        <v>830.4170365454646</v>
+        <v>61.76655643726595</v>
       </c>
       <c r="E15">
         <v>12.03791241129514</v>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>721.6687540678935</v>
+        <v>53.67784121166149</v>
       </c>
       <c r="D16">
-        <v>721.6687540678935</v>
+        <v>53.67784121166149</v>
       </c>
       <c r="E16">
         <v>19.4571409973373</v>
